--- a/biology/Médecine/1011_en_santé_et_médecine/1011_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1011_en_santé_et_médecine/1011_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1011_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1011_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1011 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1011_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1011_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1011-1223 : établissement au Vietnam, sous la dynastie des Ly, d'un service de « médecins royaux » chargés de veiller sur la santé du roi et de diffuser la connaissance et la pratique de leur art dans l'ensemble du pays[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1011-1223 : établissement au Vietnam, sous la dynastie des Ly, d'un service de « médecins royaux » chargés de veiller sur la santé du roi et de diffuser la connaissance et la pratique de leur art dans l'ensemble du pays.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1011_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1011_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Nguyen Van Thang, « La Médecine traditionnelle au Vietnam », dans Jan van Alphen (dir.) et Anthony Aris (dir.) (trad. Florène Cramant, préf. Fernand Meyer et ill. Mark de Fraeye), Médecines orientales : Guide illustré des médecines d'Asie [« Oriental Medicine »], Solin, Actes Sud, 1998, 271 p. (lire en ligne), p. 209-216.
